--- a/biology/Botanique/Square_Jan-Doornik/Square_Jan-Doornik.xlsx
+++ b/biology/Botanique/Square_Jan-Doornik/Square_Jan-Doornik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Jan-Doornik est un espace vert du 16e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par le boulevard Flandrin (en vis-à-vis des immeubles allant du no 28 au no 62).
 Il est desservi par la ligne 2 à la station Porte Dauphine.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est nommé en l'honneur de Jan Doornik (1905-1941), résistant néerlandais.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'indique le panneau d'entrée du square, la promenade qui dissimule la ligne souterraine du RER C (entre les gares Henri-Martin et Avenue-Foch) fut aménagée en 1989 sur la couverture, réalisée en 1986-1987, de la tranchée de l'ancienne ligne d'Auteuil. Cette ligne ouverte en 1854, fermée en 1985 et remplacée sur ce tronçon par la branche nord-est du RER C entrée en service en 1988, comportait depuis 1900 4 voies au milieu du boulevard Flandrin.
 Le square comprend des corbeilles de fleurs, des compositions de graminées et de fougères ainsi que des bananiers, un mail de poiriers à fleurs, une pergola aux rosiers grimpants, des treillages recouverts de clématites et une aire de jeux pour les enfants.
